--- a/public/files/WBS_Sample_Template.xlsx
+++ b/public/files/WBS_Sample_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mudliyarp\Documents\CiscoPMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmpdemo\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Task 1</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>Task Title</t>
+  </si>
+  <si>
+    <t>Task 1 Desc</t>
+  </si>
+  <si>
+    <t>Sub Task 1 Desc</t>
+  </si>
+  <si>
+    <t>Sub Task 2 Desc</t>
+  </si>
+  <si>
+    <t>Task 2 Desc</t>
+  </si>
+  <si>
+    <t>Task 3 Desc</t>
+  </si>
+  <si>
+    <t>Task 4 Desc</t>
   </si>
 </sst>
 </file>
@@ -457,39 +478,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="1" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -497,33 +521,39 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -531,16 +561,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,16 +581,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -565,16 +601,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -582,16 +621,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -599,16 +641,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -616,29 +661,35 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4">
         <v>4</v>
       </c>
     </row>
